--- a/data/excel_files/FormattedSep2022.xlsx
+++ b/data/excel_files/FormattedSep2022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -45,9 +45,6 @@
   <si>
     <t>Dinner</t>
   </si>
-  <si>
-    <t>-</t>
-  </si>
 </sst>
 </file>
 
@@ -56,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -71,6 +68,15 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -103,8 +109,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -348,1415 +363,2578 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>44866.0</v>
+        <v>44805.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>186.0</v>
+        <f t="shared" ref="C2:C49" si="1">ROUND(F2/E2,0)</f>
+        <v>186</v>
       </c>
       <c r="D2" s="4">
         <v>117.0</v>
       </c>
+      <c r="E2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>186.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>293.0</v>
+        <f t="shared" si="1"/>
+        <v>293</v>
       </c>
       <c r="D3" s="1">
         <v>217.0</v>
       </c>
+      <c r="E3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>293.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>37.0</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>139.0</v>
       </c>
+      <c r="E4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="D5" s="1">
         <v>220.0</v>
       </c>
+      <c r="E5" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6750.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44867</v>
+        <v>44806</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>100.0</v>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>236.0</v>
       </c>
+      <c r="E6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44867</v>
+        <v>44806</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>182.0</v>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>182</v>
       </c>
       <c r="D7" s="1">
         <v>263.0</v>
       </c>
+      <c r="E7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>182.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44867</v>
+        <v>44806</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>18.0</v>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>132.0</v>
       </c>
+      <c r="E8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44867</v>
+        <v>44806</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
       <c r="D9" s="1">
         <v>279.0</v>
       </c>
+      <c r="E9" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8120.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44868</v>
+        <v>44807</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>52.0</v>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
         <v>178.0</v>
       </c>
+      <c r="E10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>52.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44868</v>
+        <v>44807</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <v>252.0</v>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>252</v>
       </c>
       <c r="D11" s="1">
         <v>303.0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
+      <c r="E11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>252.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44868</v>
+        <v>44807</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
-        <v>8.0</v>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>66.0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
+      <c r="E12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44868</v>
+        <v>44807</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D13" s="1">
         <v>121.0</v>
       </c>
+      <c r="E13" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1250.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44869</v>
+        <v>44808</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>63.0</v>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="D14" s="1">
         <v>166.0</v>
       </c>
+      <c r="E14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44869</v>
+        <v>44808</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>126</v>
       </c>
       <c r="D15" s="1">
         <v>229.0</v>
       </c>
+      <c r="E15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>126.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44869</v>
+        <v>44808</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>114.0</v>
       </c>
+      <c r="E16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44869</v>
+        <v>44808</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
       <c r="D17" s="1">
         <v>194.0</v>
       </c>
+      <c r="E17" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>9800.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
-        <f t="shared" ref="A18:A21" si="1">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44870</v>
+      <c r="A18" s="6">
+        <f t="shared" ref="A18:A21" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44809</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>44870</v>
+      <c r="A19" s="6">
+        <f t="shared" si="2"/>
+        <v>44809</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>217</v>
       </c>
       <c r="D19" s="1">
         <v>339.0</v>
       </c>
+      <c r="E19" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>217.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>44870</v>
+      <c r="A20" s="6">
+        <f t="shared" si="2"/>
+        <v>44809</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>238.0</v>
       </c>
+      <c r="E20" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>44870</v>
+      <c r="A21" s="6">
+        <f t="shared" si="2"/>
+        <v>44809</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="D21" s="1">
         <v>331.0</v>
       </c>
+      <c r="E21" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6600.0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
-        <f t="shared" ref="A22:A25" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44871</v>
+      <c r="A22" s="6">
+        <f t="shared" ref="A22:A25" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44810</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
       <c r="D22" s="1">
         <v>305.0</v>
       </c>
+      <c r="E22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>131.0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
-        <f t="shared" si="2"/>
-        <v>44871</v>
+      <c r="A23" s="6">
+        <f t="shared" si="3"/>
+        <v>44810</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>210</v>
       </c>
       <c r="D23" s="1">
         <v>402.0</v>
       </c>
+      <c r="E23" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>210.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
-        <f t="shared" si="2"/>
-        <v>44871</v>
+      <c r="A24" s="6">
+        <f t="shared" si="3"/>
+        <v>44810</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>201.0</v>
       </c>
+      <c r="E24" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
-        <f t="shared" si="2"/>
-        <v>44871</v>
+      <c r="A25" s="6">
+        <f t="shared" si="3"/>
+        <v>44810</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
       <c r="D25" s="1">
         <v>256.0</v>
       </c>
+      <c r="E25" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3750.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="5">
-        <f t="shared" ref="A26:A29" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44872</v>
+      <c r="A26" s="6">
+        <f t="shared" ref="A26:A29" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44811</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
       <c r="D26" s="1">
         <v>309.0</v>
       </c>
+      <c r="E26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
-        <f t="shared" si="3"/>
-        <v>44872</v>
+      <c r="A27" s="6">
+        <f t="shared" si="4"/>
+        <v>44811</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>271</v>
       </c>
       <c r="D27" s="1">
         <v>385.0</v>
       </c>
+      <c r="E27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>271.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
-        <f t="shared" si="3"/>
-        <v>44872</v>
+      <c r="A28" s="6">
+        <f t="shared" si="4"/>
+        <v>44811</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
         <v>247.0</v>
       </c>
+      <c r="E28" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="5">
-        <f t="shared" si="3"/>
-        <v>44872</v>
+      <c r="A29" s="6">
+        <f t="shared" si="4"/>
+        <v>44811</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
       <c r="D29" s="1">
         <v>437.0</v>
       </c>
+      <c r="E29" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>13230.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="5">
-        <f t="shared" ref="A30:A33" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44873</v>
+      <c r="A30" s="6">
+        <f t="shared" ref="A30:A33" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44812</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>69.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
-        <f t="shared" si="4"/>
-        <v>44873</v>
+      <c r="A31" s="6">
+        <f t="shared" si="5"/>
+        <v>44812</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>244.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
-        <f t="shared" si="4"/>
-        <v>44873</v>
+      <c r="A32" s="6">
+        <f t="shared" si="5"/>
+        <v>44812</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="5">
-        <f t="shared" si="4"/>
-        <v>44873</v>
+      <c r="A33" s="6">
+        <f t="shared" si="5"/>
+        <v>44812</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E33" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>3750.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="5">
-        <f t="shared" ref="A34:A37" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44874</v>
+      <c r="A34" s="6">
+        <f t="shared" ref="A34:A37" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44813</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
       <c r="D34" s="1">
         <v>294.0</v>
       </c>
+      <c r="E34" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>89.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="5">
-        <f t="shared" si="5"/>
-        <v>44874</v>
+      <c r="A35" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>117</v>
       </c>
       <c r="D35" s="1">
         <v>279.0</v>
       </c>
+      <c r="E35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>117.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="5">
-        <f t="shared" si="5"/>
-        <v>44874</v>
+      <c r="A36" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>175.0</v>
       </c>
+      <c r="E36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="5">
-        <f t="shared" si="5"/>
-        <v>44874</v>
+      <c r="A37" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="E37" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>9010.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="5">
-        <f t="shared" ref="A38:A41" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44875</v>
+      <c r="A38" s="6">
+        <f t="shared" ref="A38:A41" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44814</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
       <c r="D38" s="1">
         <v>187.0</v>
       </c>
+      <c r="E38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>39.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
-        <f t="shared" si="6"/>
-        <v>44875</v>
+      <c r="A39" s="6">
+        <f t="shared" si="7"/>
+        <v>44814</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
+        <v>155</v>
       </c>
       <c r="D39" s="1">
         <v>269.0</v>
       </c>
+      <c r="E39" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="5">
-        <f t="shared" si="6"/>
-        <v>44875</v>
+      <c r="A40" s="6">
+        <f t="shared" si="7"/>
+        <v>44814</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>134.0</v>
       </c>
+      <c r="E40" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="5">
-        <f t="shared" si="6"/>
-        <v>44875</v>
+      <c r="A41" s="6">
+        <f t="shared" si="7"/>
+        <v>44814</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="D41" s="1">
         <v>175.0</v>
       </c>
+      <c r="E41" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1550.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="5">
-        <f t="shared" ref="A42:A45" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44876</v>
+      <c r="A42" s="6">
+        <f t="shared" ref="A42:A45" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44815</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C42" s="4">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="D42" s="1">
         <v>153.0</v>
       </c>
+      <c r="E42" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="5">
-        <f t="shared" si="7"/>
-        <v>44876</v>
+      <c r="A43" s="6">
+        <f t="shared" si="8"/>
+        <v>44815</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="D43" s="1">
         <v>228.0</v>
       </c>
+      <c r="E43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="5">
-        <f t="shared" si="7"/>
-        <v>44876</v>
+      <c r="A44" s="6">
+        <f t="shared" si="8"/>
+        <v>44815</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>88.0</v>
       </c>
+      <c r="E44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="5">
-        <f t="shared" si="7"/>
-        <v>44876</v>
+      <c r="A45" s="6">
+        <f t="shared" si="8"/>
+        <v>44815</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C45" s="4">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="E45" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>9730.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="5">
-        <f t="shared" ref="A46:A49" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44877</v>
+      <c r="A46" s="6">
+        <f t="shared" ref="A46:A49" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44816</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C46" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="5">
-        <f t="shared" si="8"/>
-        <v>44877</v>
+      <c r="A47" s="6">
+        <f t="shared" si="9"/>
+        <v>44816</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C47" s="4">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>196.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="5">
-        <f t="shared" si="8"/>
-        <v>44877</v>
+      <c r="A48" s="6">
+        <f t="shared" si="9"/>
+        <v>44816</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C48" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="5">
-        <f t="shared" si="8"/>
-        <v>44877</v>
+      <c r="A49" s="6">
+        <f t="shared" si="9"/>
+        <v>44816</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C49" s="4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="D49" s="1">
         <v>355.0</v>
       </c>
+      <c r="E49" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>6050.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="5">
-        <f t="shared" ref="A50:A53" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44878</v>
+      <c r="A50" s="6">
+        <f t="shared" ref="A50:A53" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44817</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C121" si="11"> ROUND(F50 / E50,0)</f>
+        <v>111</v>
+      </c>
       <c r="D50" s="1">
         <v>289.0</v>
       </c>
+      <c r="E50" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>4440.0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="5">
-        <f t="shared" si="9"/>
-        <v>44878</v>
+      <c r="A51" s="6">
+        <f t="shared" si="10"/>
+        <v>44817</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="11"/>
+        <v>230</v>
       </c>
       <c r="D51" s="1">
         <v>364.0</v>
       </c>
+      <c r="E51" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>13800.0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="5">
-        <f t="shared" si="9"/>
-        <v>44878</v>
+      <c r="A52" s="6">
+        <f t="shared" si="10"/>
+        <v>44817</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C52" s="1">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="E52" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1020.0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="5">
-        <f t="shared" si="9"/>
-        <v>44878</v>
+      <c r="A53" s="6">
+        <f t="shared" si="10"/>
+        <v>44817</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C53" s="1">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
       <c r="D53" s="1">
         <v>303.0</v>
       </c>
+      <c r="E53" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>4800.0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="5">
-        <f t="shared" ref="A54:A57" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44879</v>
+      <c r="A54" s="6">
+        <f t="shared" ref="A54:A57" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44818</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C54" s="1">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="E54" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4610.0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="5">
-        <f t="shared" si="10"/>
-        <v>44879</v>
+      <c r="A55" s="6">
+        <f t="shared" si="12"/>
+        <v>44818</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="11"/>
+        <v>144</v>
       </c>
       <c r="D55" s="1">
         <v>320.0</v>
       </c>
+      <c r="E55" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>8640.0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="5">
-        <f t="shared" si="10"/>
-        <v>44879</v>
+      <c r="A56" s="6">
+        <f t="shared" si="12"/>
+        <v>44818</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C56" s="1">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="E56" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>525.0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="5">
-        <f t="shared" si="10"/>
-        <v>44879</v>
+      <c r="A57" s="6">
+        <f t="shared" si="12"/>
+        <v>44818</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C57" s="1">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
       <c r="D57" s="1">
         <v>423.0</v>
       </c>
+      <c r="E57" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>10780.0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="5">
-        <f t="shared" ref="A58:A61" si="11">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44880</v>
+      <c r="A58" s="6">
+        <f t="shared" ref="A58:A61" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44819</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C58" s="1">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
       <c r="D58" s="1">
         <v>227.0</v>
       </c>
+      <c r="E58" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>2160.0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="5">
-        <f t="shared" si="11"/>
-        <v>44880</v>
+      <c r="A59" s="6">
+        <f t="shared" si="13"/>
+        <v>44819</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="11"/>
+        <v>196</v>
       </c>
       <c r="D59" s="1">
         <v>387.0</v>
       </c>
+      <c r="E59" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>11760.0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="5">
-        <f t="shared" si="11"/>
-        <v>44880</v>
+      <c r="A60" s="6">
+        <f t="shared" si="13"/>
+        <v>44819</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <v>269.0</v>
       </c>
+      <c r="E60" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>600.0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="5">
-        <f t="shared" si="11"/>
-        <v>44880</v>
+      <c r="A61" s="6">
+        <f t="shared" si="13"/>
+        <v>44819</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C61" s="1">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
       <c r="D61" s="1">
         <v>269.0</v>
       </c>
+      <c r="E61" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>3950.0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="5">
-        <f t="shared" ref="A62:A65" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44881</v>
+      <c r="A62" s="6">
+        <f t="shared" ref="A62:A65" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44820</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C62" s="1">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
       <c r="D62" s="1">
         <v>264.0</v>
       </c>
+      <c r="E62" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>3280.0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="5">
-        <f t="shared" si="12"/>
-        <v>44881</v>
+      <c r="A63" s="6">
+        <f t="shared" si="14"/>
+        <v>44820</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="11"/>
+        <v>122</v>
       </c>
       <c r="D63" s="1">
         <v>280.0</v>
       </c>
+      <c r="E63" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>7320.0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="5">
-        <f t="shared" si="12"/>
-        <v>44881</v>
+      <c r="A64" s="6">
+        <f t="shared" si="14"/>
+        <v>44820</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C64" s="1">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="E64" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>225.0</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="5">
-        <f t="shared" si="12"/>
-        <v>44881</v>
+      <c r="A65" s="6">
+        <f t="shared" si="14"/>
+        <v>44820</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C65" s="1">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
       <c r="D65" s="1">
         <v>394.0</v>
       </c>
+      <c r="E65" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>8610.0</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="5">
-        <f t="shared" ref="A66:A69" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44882</v>
+      <c r="A66" s="6">
+        <f t="shared" ref="A66:A69" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44821</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C66" s="1">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="E66" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1840.0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="5">
-        <f t="shared" si="13"/>
-        <v>44882</v>
+      <c r="A67" s="6">
+        <f t="shared" si="15"/>
+        <v>44821</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="11"/>
+        <v>234</v>
       </c>
       <c r="D67" s="1">
         <v>380.0</v>
       </c>
+      <c r="E67" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>14040.0</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="5">
-        <f t="shared" si="13"/>
-        <v>44882</v>
+      <c r="A68" s="6">
+        <f t="shared" si="15"/>
+        <v>44821</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="D68" s="1">
         <v>197.0</v>
       </c>
+      <c r="E68" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="5">
-        <f t="shared" si="13"/>
-        <v>44882</v>
+      <c r="A69" s="6">
+        <f t="shared" si="15"/>
+        <v>44821</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C69" s="1">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
       <c r="D69" s="1">
         <v>211.0</v>
       </c>
+      <c r="E69" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1400.0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="5">
-        <f t="shared" ref="A70:A73" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44883</v>
+      <c r="A70" s="6">
+        <f t="shared" ref="A70:A73" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44822</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C70" s="1">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
       <c r="D70" s="1">
         <v>173.0</v>
       </c>
+      <c r="E70" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1840.0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="5">
-        <f t="shared" si="14"/>
-        <v>44883</v>
+      <c r="A71" s="6">
+        <f t="shared" si="16"/>
+        <v>44822</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C71" s="1">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="E71" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>3960.0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="5">
-        <f t="shared" si="14"/>
-        <v>44883</v>
+      <c r="A72" s="6">
+        <f t="shared" si="16"/>
+        <v>44822</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>120.0</v>
       </c>
+      <c r="E72" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="5">
-        <f t="shared" si="14"/>
-        <v>44883</v>
+      <c r="A73" s="6">
+        <f t="shared" si="16"/>
+        <v>44822</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C73" s="1">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
       <c r="D73" s="1">
         <v>333.0</v>
       </c>
+      <c r="E73" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>7210.0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="5">
-        <f t="shared" ref="A74:A77" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44884</v>
+      <c r="A74" s="6">
+        <f t="shared" ref="A74:A77" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44823</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C74" s="1">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
       <c r="D74" s="1">
         <v>233.0</v>
       </c>
+      <c r="E74" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>2240.0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="5">
-        <f t="shared" si="15"/>
-        <v>44884</v>
+      <c r="A75" s="6">
+        <f t="shared" si="17"/>
+        <v>44823</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="11"/>
+        <v>159</v>
       </c>
       <c r="D75" s="1">
         <v>359.0</v>
       </c>
+      <c r="E75" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>9540.0</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="5">
-        <f t="shared" si="15"/>
-        <v>44884</v>
+      <c r="A76" s="6">
+        <f t="shared" si="17"/>
+        <v>44823</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="D76" s="1">
         <v>281.0</v>
       </c>
+      <c r="E76" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>600.0</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="5">
-        <f t="shared" si="15"/>
-        <v>44884</v>
+      <c r="A77" s="6">
+        <f t="shared" si="17"/>
+        <v>44823</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C77" s="1">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
       <c r="D77" s="1">
         <v>370.0</v>
       </c>
+      <c r="E77" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>5200.0</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="5">
-        <f t="shared" ref="A78:A81" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44885</v>
+      <c r="A78" s="6">
+        <f t="shared" ref="A78:A81" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44824</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C78" s="1">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
       <c r="D78" s="1">
         <v>263.0</v>
       </c>
+      <c r="E78" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2760.0</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="5">
-        <f t="shared" si="16"/>
-        <v>44885</v>
+      <c r="A79" s="6">
+        <f t="shared" si="18"/>
+        <v>44824</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="11"/>
+        <v>209</v>
       </c>
       <c r="D79" s="1">
         <v>362.0</v>
       </c>
+      <c r="E79" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>12540.0</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="5">
-        <f t="shared" si="16"/>
-        <v>44885</v>
+      <c r="A80" s="6">
+        <f t="shared" si="18"/>
+        <v>44824</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
       <c r="D80" s="1">
         <v>226.0</v>
       </c>
+      <c r="E80" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="5">
-        <f t="shared" si="16"/>
-        <v>44885</v>
+      <c r="A81" s="6">
+        <f t="shared" si="18"/>
+        <v>44824</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C81" s="1">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
       <c r="D81" s="1">
         <v>260.0</v>
       </c>
+      <c r="E81" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>4600.0</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="5">
-        <f t="shared" ref="A82:A85" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44886</v>
+      <c r="A82" s="6">
+        <f t="shared" ref="A82:A85" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44825</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C82" s="1">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
       <c r="D82" s="1">
         <v>279.0</v>
       </c>
+      <c r="E82" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>3680.0</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="5">
-        <f t="shared" si="17"/>
-        <v>44886</v>
+      <c r="A83" s="6">
+        <f t="shared" si="19"/>
+        <v>44825</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="11"/>
+        <v>153</v>
       </c>
       <c r="D83" s="1">
         <v>308.0</v>
       </c>
+      <c r="E83" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>9180.0</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="5">
-        <f t="shared" si="17"/>
-        <v>44886</v>
+      <c r="A84" s="6">
+        <f t="shared" si="19"/>
+        <v>44825</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
       <c r="D84" s="1">
         <v>286.0</v>
       </c>
+      <c r="E84" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>550.0</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="5">
-        <f t="shared" si="17"/>
-        <v>44886</v>
+      <c r="A85" s="6">
+        <f t="shared" si="19"/>
+        <v>44825</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C85" s="1">
+        <f t="shared" si="11"/>
+        <v>173</v>
+      </c>
       <c r="D85" s="1">
         <v>434.0</v>
       </c>
+      <c r="E85" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>12110.0</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="5">
-        <f t="shared" ref="A86:A89" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44887</v>
+      <c r="A86" s="6">
+        <f t="shared" ref="A86:A89" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44826</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C86" s="1">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
       <c r="D86" s="1">
         <v>218.0</v>
       </c>
+      <c r="E86" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2600.0</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="5">
-        <f t="shared" si="18"/>
-        <v>44887</v>
+      <c r="A87" s="6">
+        <f t="shared" si="20"/>
+        <v>44826</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="11"/>
+        <v>188</v>
       </c>
       <c r="D87" s="1">
         <v>387.0</v>
       </c>
+      <c r="E87" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>11280.0</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="5">
-        <f t="shared" si="18"/>
-        <v>44887</v>
+      <c r="A88" s="6">
+        <f t="shared" si="20"/>
+        <v>44826</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
       <c r="D88" s="1">
         <v>191.0</v>
       </c>
+      <c r="E88" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>550.0</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="5">
-        <f t="shared" si="18"/>
-        <v>44887</v>
+      <c r="A89" s="6">
+        <f t="shared" si="20"/>
+        <v>44826</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C89" s="1">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
       <c r="D89" s="1">
         <v>275.0</v>
       </c>
+      <c r="E89" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>4850.0</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="5">
-        <f t="shared" ref="A90:A93" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44888</v>
+      <c r="A90" s="6">
+        <f t="shared" ref="A90:A93" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44827</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C90" s="1">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
       <c r="D90" s="1">
         <v>210.0</v>
       </c>
+      <c r="E90" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>3200.0</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="5">
-        <f t="shared" si="19"/>
-        <v>44888</v>
+      <c r="A91" s="6">
+        <f t="shared" si="21"/>
+        <v>44827</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="11"/>
+        <v>95</v>
       </c>
       <c r="D91" s="1">
         <v>261.0</v>
       </c>
+      <c r="E91" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F91" s="8">
+        <v>5700.0</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="5">
-        <f t="shared" si="19"/>
-        <v>44888</v>
+      <c r="A92" s="6">
+        <f t="shared" si="21"/>
+        <v>44827</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="D92" s="1">
         <v>164.0</v>
       </c>
+      <c r="E92" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F92" s="8">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="5">
-        <f t="shared" si="19"/>
-        <v>44888</v>
+      <c r="A93" s="6">
+        <f t="shared" si="21"/>
+        <v>44827</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C93" s="1">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
       <c r="D93" s="1">
         <v>312.0</v>
       </c>
+      <c r="E93" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F93" s="8">
+        <v>6510.0</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="5">
-        <f t="shared" ref="A94:A97" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44889</v>
+      <c r="A94" s="6">
+        <f t="shared" ref="A94:A97" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44828</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C94" s="1">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
       <c r="D94" s="1">
         <v>131.0</v>
       </c>
+      <c r="E94" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1320.0</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="5">
-        <f t="shared" si="20"/>
-        <v>44889</v>
+      <c r="A95" s="6">
+        <f t="shared" si="22"/>
+        <v>44828</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="11"/>
+        <v>169</v>
       </c>
       <c r="D95" s="1">
         <v>333.0</v>
       </c>
+      <c r="E95" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F95" s="8">
+        <v>10140.0</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="5">
-        <f t="shared" si="20"/>
-        <v>44889</v>
+      <c r="A96" s="6">
+        <f t="shared" si="22"/>
+        <v>44828</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="D96" s="1">
         <v>130.0</v>
       </c>
+      <c r="E96" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F96" s="8">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="5">
-        <f t="shared" si="20"/>
-        <v>44889</v>
+      <c r="A97" s="6">
+        <f t="shared" si="22"/>
+        <v>44828</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C97" s="1">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
       <c r="D97" s="1">
         <v>194.0</v>
       </c>
+      <c r="E97" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1800.0</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="5">
-        <f t="shared" ref="A98:A101" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44890</v>
+      <c r="A98" s="6">
+        <f t="shared" ref="A98:A101" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44829</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C98" s="1">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
       <c r="D98" s="1">
         <v>138.0</v>
       </c>
+      <c r="E98" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1680.0</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="5">
-        <f t="shared" si="21"/>
-        <v>44890</v>
+      <c r="A99" s="6">
+        <f t="shared" si="23"/>
+        <v>44829</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="11"/>
+        <v>71</v>
       </c>
       <c r="D99" s="1">
         <v>223.0</v>
       </c>
+      <c r="E99" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>4260.0</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="5">
-        <f t="shared" si="21"/>
-        <v>44890</v>
+      <c r="A100" s="6">
+        <f t="shared" si="23"/>
+        <v>44829</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C100" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E100" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="5">
-        <f t="shared" si="21"/>
-        <v>44890</v>
+      <c r="A101" s="6">
+        <f t="shared" si="23"/>
+        <v>44829</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C101" s="1">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
       <c r="D101" s="1">
         <v>311.0</v>
       </c>
+      <c r="E101" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F101" s="8">
+        <v>7700.0</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="5">
-        <f t="shared" ref="A102:A105" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44891</v>
+      <c r="A102" s="6">
+        <f t="shared" ref="A102:A105" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44830</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C102" s="1">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
       <c r="D102" s="1">
         <v>199.0</v>
       </c>
+      <c r="E102" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>1640.0</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="5">
-        <f t="shared" si="22"/>
-        <v>44891</v>
+      <c r="A103" s="6">
+        <f t="shared" si="24"/>
+        <v>44830</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="11"/>
+        <v>115</v>
       </c>
       <c r="D103" s="1">
         <v>309.0</v>
       </c>
+      <c r="E103" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>6920.0</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="5">
-        <f t="shared" si="22"/>
-        <v>44891</v>
+      <c r="A104" s="6">
+        <f t="shared" si="24"/>
+        <v>44830</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C104" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E104" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="5">
-        <f t="shared" si="22"/>
-        <v>44891</v>
+      <c r="A105" s="6">
+        <f t="shared" si="24"/>
+        <v>44830</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="E105" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>4600.0</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="5">
-        <f t="shared" ref="A106:A109" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44892</v>
+      <c r="A106" s="6">
+        <f t="shared" ref="A106:A109" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44831</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C106" s="1">
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
       <c r="D106" s="1">
         <v>245.0</v>
       </c>
+      <c r="E106" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F106" s="8">
+        <v>3320.0</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="5">
-        <f t="shared" si="23"/>
-        <v>44892</v>
+      <c r="A107" s="6">
+        <f t="shared" si="25"/>
+        <v>44831</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="11"/>
+        <v>181</v>
       </c>
       <c r="D107" s="1">
         <v>340.0</v>
       </c>
+      <c r="E107" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F107" s="8">
+        <v>10860.0</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="5">
-        <f t="shared" si="23"/>
-        <v>44892</v>
+      <c r="A108" s="6">
+        <f t="shared" si="25"/>
+        <v>44831</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C108" s="1">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="E108" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F108" s="8">
+        <v>425.0</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="5">
-        <f t="shared" si="23"/>
-        <v>44892</v>
+      <c r="A109" s="6">
+        <f t="shared" si="25"/>
+        <v>44831</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C109" s="1">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
       <c r="D109" s="1">
         <v>252.0</v>
       </c>
+      <c r="E109" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F109" s="8">
+        <v>4850.0</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="5">
-        <f t="shared" ref="A110:A113" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44893</v>
+      <c r="A110" s="6">
+        <f t="shared" ref="A110:A113" si="26">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44832</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C110" s="1">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="E110" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F110" s="8">
+        <v>2720.0</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="5">
-        <f t="shared" si="24"/>
-        <v>44893</v>
+      <c r="A111" s="6">
+        <f t="shared" si="26"/>
+        <v>44832</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="11"/>
+        <v>160</v>
       </c>
       <c r="D111" s="1">
         <v>292.0</v>
       </c>
+      <c r="E111" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F111" s="8">
+        <v>9600.0</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="5">
-        <f t="shared" si="24"/>
-        <v>44893</v>
+      <c r="A112" s="6">
+        <f t="shared" si="26"/>
+        <v>44832</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="D112" s="1">
         <v>217.0</v>
       </c>
+      <c r="E112" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F112" s="8">
+        <v>375.0</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="5">
-        <f t="shared" si="24"/>
-        <v>44893</v>
+      <c r="A113" s="6">
+        <f t="shared" si="26"/>
+        <v>44832</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C113" s="1">
+        <f t="shared" si="11"/>
+        <v>183</v>
+      </c>
       <c r="D113" s="1">
         <v>387.0</v>
       </c>
+      <c r="E113" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>12810.0</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="5">
-        <f t="shared" ref="A114:A117" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44894</v>
+      <c r="A114" s="6">
+        <f t="shared" ref="A114:A117" si="27">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44833</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C114" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
       <c r="D114" s="1">
         <v>198.0</v>
       </c>
+      <c r="E114" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F114" s="8">
+        <v>2780.0</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="5">
-        <f t="shared" si="25"/>
-        <v>44894</v>
+      <c r="A115" s="6">
+        <f t="shared" si="27"/>
+        <v>44833</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="11"/>
+        <v>196</v>
       </c>
       <c r="D115" s="1">
         <v>339.0</v>
       </c>
+      <c r="E115" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>11760.0</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="5">
-        <f t="shared" si="25"/>
-        <v>44894</v>
+      <c r="A116" s="6">
+        <f t="shared" si="27"/>
+        <v>44833</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="D116" s="1">
         <v>164.0</v>
       </c>
+      <c r="E116" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="5">
-        <f t="shared" si="25"/>
-        <v>44894</v>
+      <c r="A117" s="6">
+        <f t="shared" si="27"/>
+        <v>44833</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C117" s="1">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
       <c r="D117" s="1">
         <v>222.0</v>
       </c>
+      <c r="E117" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>3750.0</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="5">
-        <f t="shared" ref="A118:A121" si="26">A2 + (INT((ROW()-ROW($B$2))/4))</f>
-        <v>44895</v>
+      <c r="A118" s="6">
+        <f t="shared" ref="A118:A121" si="28">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <v>44834</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C118" s="1">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
       <c r="D118" s="1">
         <v>209.0</v>
       </c>
+      <c r="E118" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>3200.0</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="5">
-        <f t="shared" si="26"/>
-        <v>44895</v>
+      <c r="A119" s="6">
+        <f t="shared" si="28"/>
+        <v>44834</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
       </c>
       <c r="D119" s="1">
         <v>200.0</v>
       </c>
+      <c r="E119" s="9">
+        <v>60.0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>8990.0</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="5">
-        <f t="shared" si="26"/>
-        <v>44895</v>
+      <c r="A120" s="6">
+        <f t="shared" si="28"/>
+        <v>44834</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>160.0</v>
       </c>
+      <c r="E120" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="5">
-        <f t="shared" si="26"/>
-        <v>44895</v>
+      <c r="A121" s="6">
+        <f t="shared" si="28"/>
+        <v>44834</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C121" s="1">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
       <c r="D121" s="1">
         <v>274.0</v>
+      </c>
+      <c r="E121" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>7560.0</v>
       </c>
     </row>
   </sheetData>
